--- a/table/sample_comparison.xlsx
+++ b/table/sample_comparison.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BA1F6-14CD-0A48-BE55-CF77149F19B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FDCA58-0A46-7544-BC47-1939455A3598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2340" windowWidth="27640" windowHeight="16860" activeTab="1" xr2:uid="{2E227995-E040-3344-AC22-DC05A41BEEAF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="18700" activeTab="1" xr2:uid="{2E227995-E040-3344-AC22-DC05A41BEEAF}"/>
   </bookViews>
   <sheets>
     <sheet name="samples" sheetId="1" r:id="rId1"/>
     <sheet name="comparison" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="64">
   <si>
     <t>variable</t>
   </si>
@@ -101,6 +102,132 @@
   </si>
   <si>
     <t>Difference [%]</t>
+  </si>
+  <si>
+    <t>Energy demand [kWh/m2]</t>
+  </si>
+  <si>
+    <t>Price [Cents/kWh]</t>
+  </si>
+  <si>
+    <t>Heating_surface [sqm]</t>
+  </si>
+  <si>
+    <t>Full sample (N = 2.719.270)</t>
+  </si>
+  <si>
+    <t>Sub-sample (N = 4.410)</t>
+  </si>
+  <si>
+    <t>122.5 [56.4; 209.33]</t>
+  </si>
+  <si>
+    <t>121.39 [55.4; 211.32]</t>
+  </si>
+  <si>
+    <t>-0.91 [-1.81; 0.94]</t>
+  </si>
+  <si>
+    <t>122.36 [58.67; 204]</t>
+  </si>
+  <si>
+    <t>116.97 [53.57; 198.17]</t>
+  </si>
+  <si>
+    <t>-4.61 [-9.52; -2.94]</t>
+  </si>
+  <si>
+    <t>89.38 [43.23; 156.88]</t>
+  </si>
+  <si>
+    <t>83.98 [41.92; 141.01]</t>
+  </si>
+  <si>
+    <t>-6.43 [-3.12; -11.25]</t>
+  </si>
+  <si>
+    <t>6.28 [4.56; 8.14]</t>
+  </si>
+  <si>
+    <t>6.22 [4.59; 8.04]</t>
+  </si>
+  <si>
+    <t>-0.96 [0.65; -1.24]</t>
+  </si>
+  <si>
+    <t>7.14 [5.1; 9.18]</t>
+  </si>
+  <si>
+    <t>7.21 [5.2; 9.23]</t>
+  </si>
+  <si>
+    <t>0.97 [1.92; 0.54]</t>
+  </si>
+  <si>
+    <t>10.45 [6.86; 15.07]</t>
+  </si>
+  <si>
+    <t>10.76 [7.17; 16.15]</t>
+  </si>
+  <si>
+    <t>2.88 [4.32; 6.69]</t>
+  </si>
+  <si>
+    <t>3467.6 [2921.14; 4180.42]</t>
+  </si>
+  <si>
+    <t>3461.14 [2914.56; 4180.4]</t>
+  </si>
+  <si>
+    <t>-0.19 [-0.23; 0]</t>
+  </si>
+  <si>
+    <t>3568.13 [2971.7; 4269.19]</t>
+  </si>
+  <si>
+    <t>3582.48 [2946.19; 4318.42]</t>
+  </si>
+  <si>
+    <t>0.4 [-0.87; 1.14]</t>
+  </si>
+  <si>
+    <t>3441.1 [2924.64; 4137.61]</t>
+  </si>
+  <si>
+    <t>3447.97 [2948.92; 4180.11]</t>
+  </si>
+  <si>
+    <t>0.2 [0.82; 1.02]</t>
+  </si>
+  <si>
+    <t>648.84 [163; 1849.4]</t>
+  </si>
+  <si>
+    <t>727.47 [168.04; 1817]</t>
+  </si>
+  <si>
+    <t>10.81 [3; -1.78]</t>
+  </si>
+  <si>
+    <t>452.82 [160; 1195.6]</t>
+  </si>
+  <si>
+    <t>489.55 [167.1; 1362.8]</t>
+  </si>
+  <si>
+    <t>7.5 [4.25; 12.27]</t>
+  </si>
+  <si>
+    <t>1714.09 [255; 5030.18]</t>
+  </si>
+  <si>
+    <t>2034.55 [297.52; 6968.98]</t>
+  </si>
+  <si>
+    <t>15.75 [14.29; 27.82]</t>
+  </si>
+  <si>
+    <t>*) Mean [90% CI]</t>
   </si>
 </sst>
 </file>
@@ -137,11 +264,58 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -150,13 +324,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -911,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278F030E-8929-4F4A-B37B-06584E568DE7}">
-  <dimension ref="A2:T15"/>
+  <dimension ref="A2:T16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -932,7 +1124,7 @@
     <col min="17" max="17" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -980,19 +1172,19 @@
       <c r="N3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1032,29 +1224,29 @@
         <v>-0.91</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M15" si="0">ROUND((1-(E4/I4))*100,2)</f>
+        <f>ROUND((1-(E4/I4))*100,2)</f>
         <v>-1.81</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N15" si="1">ROUND((1-(F4/J4))*100,2)</f>
+        <f t="shared" ref="N4:N15" si="0">ROUND((1-(F4/J4))*100,2)</f>
         <v>0.94</v>
       </c>
-      <c r="P4" t="s">
-        <v>5</v>
+      <c r="P4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
         <v>6</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" ref="R4:R15" si="2">CONCATENATE(D4, " [",E4,"; ",F4,"]")</f>
+        <f t="shared" ref="R4:R15" si="1">CONCATENATE(D4, " [",E4,"; ",F4,"]")</f>
         <v>122,5 [56,4; 209,33]</v>
       </c>
       <c r="S4" t="str">
-        <f t="shared" ref="S4:S15" si="3">CONCATENATE(H4, " [",I4,"; ",J4,"]")</f>
+        <f t="shared" ref="S4:S15" si="2">CONCATENATE(H4, " [",I4,"; ",J4,"]")</f>
         <v>121,39 [55,4; 211,32]</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f t="shared" ref="T4:T15" si="4">CONCATENATE(L4, " [",M4,"; ",N4,"]")</f>
+        <f t="shared" ref="T4:T15" si="3">CONCATENATE(L4, " [",M4,"; ",N4,"]")</f>
         <v>-0,91 [-1,81; 0,94]</v>
       </c>
     </row>
@@ -1087,30 +1279,31 @@
         <v>198.17</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" ref="L5:L15" si="5">ROUND((1-(D5/H5))*100,2)</f>
+        <f t="shared" ref="L5:L15" si="4">ROUND((1-(D5/H5))*100,2)</f>
         <v>-4.6100000000000003</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" ref="M4:M15" si="5">ROUND((1-(E5/I5))*100,2)</f>
+        <v>-9.52</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="0"/>
-        <v>-9.52</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="1"/>
         <v>-2.94</v>
       </c>
+      <c r="P5" s="10"/>
       <c r="Q5" t="s">
         <v>7</v>
       </c>
       <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>122,36 [58,67; 204]</v>
+      </c>
+      <c r="S5" t="str">
         <f t="shared" si="2"/>
-        <v>122,36 [58,67; 204]</v>
-      </c>
-      <c r="S5" t="str">
+        <v>116,97 [53,57; 198,17]</v>
+      </c>
+      <c r="T5" t="str">
         <f t="shared" si="3"/>
-        <v>116,97 [53,57; 198,17]</v>
-      </c>
-      <c r="T5" t="str">
-        <f t="shared" si="4"/>
         <v>-4,61 [-9,52; -2,94]</v>
       </c>
     </row>
@@ -1147,26 +1340,27 @@
         <v>-6.43</v>
       </c>
       <c r="M6" s="3">
+        <f t="shared" si="5"/>
+        <v>-3.12</v>
+      </c>
+      <c r="N6" s="3">
         <f t="shared" si="0"/>
-        <v>-3.12</v>
-      </c>
-      <c r="N6" s="3">
+        <v>-11.25</v>
+      </c>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>-11.25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>8</v>
-      </c>
-      <c r="R6" t="str">
+        <v>89,38 [43,23; 156,88]</v>
+      </c>
+      <c r="S6" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>89,38 [43,23; 156,88]</v>
-      </c>
-      <c r="S6" t="str">
+        <v>83,98 [41,92; 141,01]</v>
+      </c>
+      <c r="T6" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>83,98 [41,92; 141,01]</v>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="4"/>
         <v>-6,43 [-3,12; -11,25]</v>
       </c>
     </row>
@@ -1202,33 +1396,33 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.96</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="5"/>
-        <v>-0.96</v>
-      </c>
-      <c r="M7" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N7" s="3">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="1"/>
         <v>-1.24</v>
       </c>
-      <c r="P7" t="s">
-        <v>9</v>
+      <c r="P7" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="Q7" t="s">
         <v>6</v>
       </c>
       <c r="R7" t="str">
+        <f t="shared" si="1"/>
+        <v>6,28 [4,56; 8,14]</v>
+      </c>
+      <c r="S7" t="str">
         <f t="shared" si="2"/>
-        <v>6,28 [4,56; 8,14]</v>
-      </c>
-      <c r="S7" t="str">
+        <v>6,22 [4,59; 8,04]</v>
+      </c>
+      <c r="T7" t="str">
         <f t="shared" si="3"/>
-        <v>6,22 [4,59; 8,04]</v>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="4"/>
         <v>-0,96 [0,65; -1,24]</v>
       </c>
     </row>
@@ -1261,30 +1455,31 @@
         <v>9.23</v>
       </c>
       <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.97</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="5"/>
-        <v>0.97</v>
-      </c>
-      <c r="M8" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="N8" s="3">
         <f t="shared" si="0"/>
-        <v>1.92</v>
-      </c>
-      <c r="N8" s="3">
-        <f t="shared" si="1"/>
         <v>0.54</v>
       </c>
+      <c r="P8" s="10"/>
       <c r="Q8" t="s">
         <v>7</v>
       </c>
       <c r="R8" t="str">
+        <f t="shared" si="1"/>
+        <v>7,14 [5,1; 9,18]</v>
+      </c>
+      <c r="S8" t="str">
         <f t="shared" si="2"/>
-        <v>7,14 [5,1; 9,18]</v>
-      </c>
-      <c r="S8" t="str">
+        <v>7,21 [5,2; 9,23]</v>
+      </c>
+      <c r="T8" t="str">
         <f t="shared" si="3"/>
-        <v>7,21 [5,2; 9,23]</v>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="4"/>
         <v>0,97 [1,92; 0,54]</v>
       </c>
     </row>
@@ -1317,30 +1512,31 @@
         <v>16.149999999999999</v>
       </c>
       <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>2.88</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="5"/>
-        <v>2.88</v>
-      </c>
-      <c r="M9" s="3">
+        <v>4.32</v>
+      </c>
+      <c r="N9" s="3">
         <f t="shared" si="0"/>
-        <v>4.32</v>
-      </c>
-      <c r="N9" s="3">
+        <v>6.69</v>
+      </c>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>6.69</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R9" t="str">
+        <v>10,45 [6,86; 15,07]</v>
+      </c>
+      <c r="S9" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>10,45 [6,86; 15,07]</v>
-      </c>
-      <c r="S9" t="str">
+        <v>10,76 [7,17; 16,15]</v>
+      </c>
+      <c r="T9" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>10,76 [7,17; 16,15]</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="4"/>
         <v>2,88 [4,32; 6,69]</v>
       </c>
     </row>
@@ -1376,33 +1572,33 @@
         <v>4180.3999999999996</v>
       </c>
       <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.19</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="5"/>
-        <v>-0.19</v>
-      </c>
-      <c r="M10" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="N10" s="3">
         <f t="shared" si="0"/>
-        <v>-0.23</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Q10" t="s">
         <v>6</v>
       </c>
       <c r="R10" t="str">
+        <f t="shared" si="1"/>
+        <v>3467,6 [2921,14; 4180,42]</v>
+      </c>
+      <c r="S10" t="str">
         <f t="shared" si="2"/>
-        <v>3467,6 [2921,14; 4180,42]</v>
-      </c>
-      <c r="S10" t="str">
+        <v>3461,14 [2914,56; 4180,4]</v>
+      </c>
+      <c r="T10" t="str">
         <f t="shared" si="3"/>
-        <v>3461,14 [2914,56; 4180,4]</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="4"/>
         <v>-0,19 [-0,23; 0]</v>
       </c>
     </row>
@@ -1435,30 +1631,31 @@
         <v>4318.42</v>
       </c>
       <c r="L11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="M11" s="3">
+        <v>-0.87</v>
+      </c>
+      <c r="N11" s="3">
         <f t="shared" si="0"/>
-        <v>-0.87</v>
-      </c>
-      <c r="N11" s="3">
-        <f t="shared" si="1"/>
         <v>1.1399999999999999</v>
       </c>
+      <c r="P11" s="10"/>
       <c r="Q11" t="s">
         <v>7</v>
       </c>
       <c r="R11" t="str">
+        <f t="shared" si="1"/>
+        <v>3568,13 [2971,7; 4269,19]</v>
+      </c>
+      <c r="S11" t="str">
         <f t="shared" si="2"/>
-        <v>3568,13 [2971,7; 4269,19]</v>
-      </c>
-      <c r="S11" t="str">
+        <v>3582,48 [2946,19; 4318,42]</v>
+      </c>
+      <c r="T11" t="str">
         <f t="shared" si="3"/>
-        <v>3582,48 [2946,19; 4318,42]</v>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="4"/>
         <v>0,4 [-0,87; 1,14]</v>
       </c>
     </row>
@@ -1491,30 +1688,31 @@
         <v>4180.1099999999997</v>
       </c>
       <c r="L12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="5"/>
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="N12" s="3">
         <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-      <c r="N12" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>1.02</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>8</v>
-      </c>
-      <c r="R12" t="str">
+        <v>3441,1 [2924,64; 4137,61]</v>
+      </c>
+      <c r="S12" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>3441,1 [2924,64; 4137,61]</v>
-      </c>
-      <c r="S12" t="str">
+        <v>3447,97 [2948,92; 4180,11]</v>
+      </c>
+      <c r="T12" s="8" t="str">
         <f t="shared" si="3"/>
-        <v>3447,97 [2948,92; 4180,11]</v>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="4"/>
         <v>0,2 [0,82; 1,02]</v>
       </c>
     </row>
@@ -1550,33 +1748,33 @@
         <v>1817</v>
       </c>
       <c r="L13" s="3">
+        <f t="shared" si="4"/>
+        <v>10.81</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="5"/>
-        <v>10.81</v>
-      </c>
-      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="N13" s="3">
-        <f t="shared" si="1"/>
         <v>-1.78</v>
       </c>
-      <c r="P13" t="s">
-        <v>11</v>
+      <c r="P13" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
         <v>6</v>
       </c>
       <c r="R13" t="str">
+        <f t="shared" si="1"/>
+        <v>648,84 [163; 1849,4]</v>
+      </c>
+      <c r="S13" t="str">
         <f t="shared" si="2"/>
-        <v>648,84 [163; 1849,4]</v>
-      </c>
-      <c r="S13" t="str">
+        <v>727,47 [168,04; 1817]</v>
+      </c>
+      <c r="T13" t="str">
         <f t="shared" si="3"/>
-        <v>727,47 [168,04; 1817]</v>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="4"/>
         <v>10,81 [3; -1,78]</v>
       </c>
     </row>
@@ -1609,30 +1807,31 @@
         <v>1362.8</v>
       </c>
       <c r="L14" s="3">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
-      <c r="M14" s="3">
+        <v>4.25</v>
+      </c>
+      <c r="N14" s="3">
         <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="1"/>
         <v>12.27</v>
       </c>
+      <c r="P14" s="10"/>
       <c r="Q14" t="s">
         <v>7</v>
       </c>
       <c r="R14" t="str">
+        <f t="shared" si="1"/>
+        <v>452,82 [160; 1195,6]</v>
+      </c>
+      <c r="S14" t="str">
         <f t="shared" si="2"/>
-        <v>452,82 [160; 1195,6]</v>
-      </c>
-      <c r="S14" t="str">
+        <v>489,55 [167,1; 1362,8]</v>
+      </c>
+      <c r="T14" t="str">
         <f t="shared" si="3"/>
-        <v>489,55 [167,1; 1362,8]</v>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="4"/>
         <v>7,5 [4,25; 12,27]</v>
       </c>
     </row>
@@ -1665,34 +1864,279 @@
         <v>6968.98</v>
       </c>
       <c r="L15" s="3">
+        <f t="shared" si="4"/>
+        <v>15.75</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="5"/>
-        <v>15.75</v>
-      </c>
-      <c r="M15" s="3">
+        <v>14.29</v>
+      </c>
+      <c r="N15" s="3">
         <f t="shared" si="0"/>
-        <v>14.29</v>
-      </c>
-      <c r="N15" s="3">
+        <v>27.82</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>27.82</v>
-      </c>
-      <c r="Q15" t="s">
+        <v>1714,09 [255; 5030,18]</v>
+      </c>
+      <c r="S15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>2034,55 [297,52; 6968,98]</v>
+      </c>
+      <c r="T15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>15,75 [14,29; 27,82]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="P13:P15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742E6E5E-5A26-0744-B91F-294D8730B2C7}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R15" t="str">
-        <f t="shared" si="2"/>
-        <v>1714,09 [255; 5030,18]</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="3"/>
-        <v>2034,55 [297,52; 6968,98]</v>
-      </c>
-      <c r="T15" t="str">
-        <f t="shared" si="4"/>
-        <v>15,75 [14,29; 27,82]</v>
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>